--- a/example/input/data.xlsx
+++ b/example/input/data.xlsx
@@ -626,10 +626,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A2:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -637,71 +637,71 @@
     <col min="5" max="5" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-    </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
         <v>18</v>
-      </c>
-      <c r="C3">
-        <v>26.5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>18</v>
       </c>
       <c r="C4">
+        <v>26.5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>18</v>
+      </c>
+      <c r="C5">
         <v>18.5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>25</v>
       </c>
     </row>
